--- a/kfcmotest.xlsx
+++ b/kfcmotest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kornél\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kornél\Desktop\KFCMO-TESTCASE-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
-    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>Description</t>
   </si>
@@ -66,16 +66,10 @@
     <t>Pass / Fail</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Product name</t>
   </si>
   <si>
     <t>KFC Magyarország</t>
-  </si>
-  <si>
-    <t>Dubai Kornél</t>
   </si>
   <si>
     <t>Galaxy A70 / Android 11 RP1A.200720.012.A70FNXXU5DVG3</t>
@@ -159,70 +153,249 @@
     <t>2_1_1</t>
   </si>
   <si>
-    <t>(App has location access, GPS on)</t>
-  </si>
-  <si>
     <t>2_2_1</t>
   </si>
   <si>
-    <t>(App has location access, GPS off)</t>
-  </si>
-  <si>
-    <t>"Order and pickup" menu should show up, after that a window should pop up asking about turning the GPS on.</t>
-  </si>
-  <si>
     <t>Have the KFC Magyarország app installed (link)</t>
   </si>
   <si>
     <t>2_2_2</t>
   </si>
   <si>
-    <t>Activing GPS</t>
-  </si>
-  <si>
-    <t>"Order and pickup" menu shows up, after that a window pops up asking about turning the GPS on.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tap on the OK button in pop up window
-2. Tap on the "Off" button in the new displayed window
-3. Tap on the return button
+    <t>GPS turns on and the user is navigated back to the app, sees the map, showing the nearest restaurants</t>
+  </si>
+  <si>
+    <t>2_3_1</t>
+  </si>
+  <si>
+    <t>2_3_2</t>
+  </si>
+  <si>
+    <t>Tapping on the "Order and pickup" option / Activing GPS</t>
+  </si>
+  <si>
+    <t>Tapping on the "Order and pickup" option / Not activating GPS</t>
+  </si>
+  <si>
+    <t>1. On the down row tap on the "Order" option
+2. Tap on the "Order and pickup" option
+3. Tap on the OK button in pop up window
+4. Tap on the "Off" button in the new displayed window
+5. Tap on the return button</t>
+  </si>
+  <si>
+    <t>"Order and pickup" menu should show up, after that a window should pop up asking about turning the GPS on. After turned ON the user should be navigated back to the app, seeing the map, showing the nearest restaurants</t>
+  </si>
+  <si>
+    <t>1. Have the application oppened
+2. Application has access to location data
+3. GPS is turned on</t>
+  </si>
+  <si>
+    <t>"Order and pickup" menu shows up. After that a window pops up asking about turning the GPS on. After refused, the pop up window dissappears. We see a text box where we can enter our address. After entering it, the app navigates the user to the map after a few seconds, showing the nearest restaurants.</t>
+  </si>
+  <si>
+    <t>1. Have the application oppened
+2. Have GPS turned on</t>
+  </si>
+  <si>
+    <t>1. On the down row tap on the "Order" option
+2. Tap on the "Order and pickup" option
+3. Tap on "Only this time"</t>
+  </si>
+  <si>
+    <t>Order and pickup menu should show up, after that a window should pop up asking about turning the location access on. After pressed "Only this time" the user should be navigated back to the app, seeing the map, showing the nearest restaurants.</t>
+  </si>
+  <si>
+    <t>Order and pickup menu shows up, a window pops up asking about turning the location access on. After pressed "Only this time" the user is navigated back to the app, seeing the map, showing the nearest restaurants.</t>
+  </si>
+  <si>
+    <t>Tapping on the "Order and pickup" option / No location access / Only this time</t>
+  </si>
+  <si>
+    <t>Tapping on the "Order and pickup" option / No location access / Don't allow</t>
+  </si>
+  <si>
+    <t>1. On the down row tap on the "Order" option
+2. Tap on the "Order and pickup" option
+3. Tap on "Don't allow"
+4. Type in the address
+5. Tap on continue</t>
+  </si>
+  <si>
+    <t>1. On the down row tap on the "Order" option
+2. Tap on the "Order and pickup" option
+3. Tap on the "No thank you" option in the pop up window
+4. Type in the address
+5. Tap on continue</t>
+  </si>
+  <si>
+    <t>"Order and pickup" menu should show up, after that a window should pop up asking about turning the location acces on. After tapped "Don't allow", the pop up window should dissappear. We should see a text box where we can enter our address. After entering it and pressed continue, the app should navigate the user to the map after a few seconds, showing the nearest restaurants.</t>
+  </si>
+  <si>
+    <t>"Order and pickup" menu should show up, after that a window should pop up asking about turning the GPS on. After refused, the pop up window should dissappear. We should see a text box where we can enter our address. After entering it and pressed continue, the app should navigate the user to the map after a few seconds, showing the nearest restaurants.</t>
+  </si>
+  <si>
+    <t>"Order and pickup" shows up, after that a window pops up asking about turning the location acces on. After tapped "Don't allow", the pop up window dissappeares. A text box can be seen, where we can enter our address. After entering it and pressed continue, the app navigates the user to the map after a few seconds, showing the nearest restaurants.</t>
+  </si>
+  <si>
+    <t>2_4_1</t>
+  </si>
+  <si>
+    <t>2_4_2</t>
+  </si>
+  <si>
+    <t>Tapping on the "Order and pickup" option / No GPS and Location /  Location "Only this time" / Activating GPS</t>
+  </si>
+  <si>
+    <t>1. Have the application oppened</t>
+  </si>
+  <si>
+    <t>1. On the down row tap on the "Order" option
+2. Tap on the "Order and pickup" option
+3. Tap on "Only this time"
+4. Tap on the OK button in pop up window
+5. Tap on the "Off" button in the new displayed window
+6. Tap on the return button</t>
+  </si>
+  <si>
+    <t>Tapping on the "Order and pickup" option / No GPS and Location /  Location "Only this time" / Not activating GPS</t>
+  </si>
+  <si>
+    <t>1. On the down row tap on the "Order" option
+2. Tap on the "Order and pickup" option
+3. Tap on "Only this time"
+4. Tap on the "No thank you" option in the pop up window
+5. Type in the address
+6. Tap on continue</t>
+  </si>
+  <si>
+    <t>Order and pickup menu should show up, after that a window should pop up asking about turning the location access on. After pressing "Only this time" another window should pop up asking about turning the GPS on. After turned ON the user should be navigated back to the app, seeing the map, showing the nearest restaurants</t>
+  </si>
+  <si>
+    <t>Order and pickup menu should show up, after that a window should pop up asking about turning the location access on. After pressing "Only this time" another window should pop up asking about turning the GPS on.  After refused, the pop up window should dissappear. We should see a text box where we can enter our address. After entering it and pressed continue, the app should navigate the user to the map after a few seconds, showing the nearest restaurants.</t>
+  </si>
+  <si>
+    <t>Order and pickup menu shows up, after that a window pops up asking about turning the location access on. After pressing "Only this time", another window pops up asking about turning the GPS on. After turned ON the user is navigated back to the app, seeing the map, showing the nearest restaurants</t>
+  </si>
+  <si>
+    <t>Order and pickup shows up, after that a window pops up asking about turning the location access on. After pressing "Only this time" another window pops up asking about turning the GPS on.  After refused, the pop up window dissappeares. We see a text box where we can enter our address. After entering it and pressed continue, the app navigates the user to the map after a few seconds, showing the nearest restaurants.</t>
+  </si>
+  <si>
+    <t>My location</t>
+  </si>
+  <si>
+    <t>dkornel2000</t>
+  </si>
+  <si>
+    <t>Selecting Restaurant</t>
+  </si>
+  <si>
+    <t>1. Have the application oppened
+2. Finished one of the prevoius steps (2_1_1 - 2_4_2)</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>1. Tap on "HU KFC Szeged Árkád" restaurant
+2. Tap on continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should be navigated where a dining option can be choosen. </t>
+  </si>
+  <si>
+    <t>The user is navigated to a window where a dining option can be choosen.</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>Selecting dining option / "At the restaurant"</t>
+  </si>
+  <si>
+    <t>Selecting dining option / "To go"</t>
+  </si>
+  <si>
+    <t>1. Have the application oppened
+2. Selected "HU KFC Szeged Árkád" restaurant</t>
+  </si>
+  <si>
+    <t>1. Tap on "At the restaurant"</t>
+  </si>
+  <si>
+    <t>1. Tap on "To go"</t>
+  </si>
+  <si>
+    <t>The user is navigated to a window where the a food can be ordered.</t>
+  </si>
+  <si>
+    <t>The user should be navigated to a window where the a food can be ordered.</t>
+  </si>
+  <si>
+    <t>Selecting food</t>
+  </si>
+  <si>
+    <t>1. Have the application oppened
+2. Selected "HU KFC Szeged Árkád" restaurant
+3. Picked a dining option</t>
+  </si>
+  <si>
+    <t>Adding to basket</t>
+  </si>
+  <si>
+    <t>1. Tap on "Add to basket 2190 Huf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Tap on the 4 square icon on the left of the "Coupons" option
+2. Tap on the "Burgers" option
+3. Tap on "Grander"
 </t>
   </si>
   <si>
-    <t>GPS should be turned on and the user should be navigated back to the app, seeing the map, showing the nearest restaurants</t>
-  </si>
-  <si>
-    <t>GPS turns on and the user is navigated back to the app, sees the map, showing the nearest restaurants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2_2_3 </t>
-  </si>
-  <si>
-    <t>Not activating GPS</t>
-  </si>
-  <si>
-    <t>1. Tap on the "No thank you" option in the pop up window
-2. Tap on the text box under the "Enter your address" text
-3. Type in the address
-4. Tap on continue</t>
-  </si>
-  <si>
-    <t>The app should navigate the user to the map after a few seconds, showing the nearest restaurants.</t>
-  </si>
-  <si>
-    <t>The app navigates the user to the map after a few seconds, showing the nearest restaurants.</t>
-  </si>
-  <si>
-    <t>2_3_1</t>
-  </si>
-  <si>
-    <t>2_3_2</t>
-  </si>
-  <si>
-    <t>2_3_3</t>
-  </si>
-  <si>
-    <t>(App has NO location access, GPS on)</t>
+    <t>The user should be navigated to a window where all of the avaliable food types are seen. After taping on the "Burger" option, all of the burgers should be seen. After taping on "Grander" the user should see the hamburger with aditional information.</t>
+  </si>
+  <si>
+    <t>The user is  navigated to a window where all of the avaliable food types are seen. After taping on the "Burger" option, all of the burgers are seen. After taping on "Grander" the user sees the hamburger with aditional information.</t>
+  </si>
+  <si>
+    <t>The food should be added to the basket and the the app should navigate the user back to the "Burgers" menu.</t>
+  </si>
+  <si>
+    <t>The food is added to the basket and the the app navigates the user back to the "Burgers" menu.</t>
+  </si>
+  <si>
+    <t>Order and pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Have the application oppened
+2. Selected "HU KFC Szeged Árkád" restaurant
+3. Picked a dining option
+4. Selected the "Burgers" menu
+5. Selected the "Grander" </t>
+  </si>
+  <si>
+    <t>1. Have the application oppened
+2. Selected "HU KFC Szeged Árkád" restaurant
+3. Picked a dining option
+4. Selected the "Burgers" menu
+5. Selected the "Grander" 
+6. Added "Grander" to the basket</t>
+  </si>
+  <si>
+    <t>1. Tap on the green "Basket" icon
+2. Tap on "Order and pay"
+3. Select a payment method
+4. Pay</t>
+  </si>
+  <si>
+    <t>After taping on the "Basket" icon a window pops up. Taping on "Order and pay", the app navigates the user to the "Summary" window, where the order can be seen. (...payment)</t>
+  </si>
+  <si>
+    <t>After taping on the "Basket" icon a window should pop up. Taping on "Order and pay" the app should navigate the user to the "Summary" window, where the order can be seen. (...payment)</t>
   </si>
 </sst>
 </file>
@@ -287,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +476,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -384,17 +575,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -420,6 +602,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -702,449 +923,548 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="68.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="36.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" s="22" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" s="22" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" s="29" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" s="33" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" s="33" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1152,9 +1472,9 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1163,7 +1483,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1172,7 +1492,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1181,7 +1501,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1190,7 +1510,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1199,7 +1519,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1208,7 +1528,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1217,7 +1537,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1226,7 +1546,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1235,7 +1555,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1244,7 +1564,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1253,7 +1573,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1262,7 +1582,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1271,7 +1591,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1280,7 +1600,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1289,7 +1609,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1298,7 +1618,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1307,7 +1627,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1316,7 +1636,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1325,7 +1645,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1334,7 +1654,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1343,7 +1663,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1352,7 +1672,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1361,7 +1681,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1370,7 +1690,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1379,7 +1699,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1388,7 +1708,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1397,7 +1717,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1406,7 +1726,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -1415,7 +1735,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1424,7 +1744,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1433,7 +1753,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1442,7 +1762,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1451,7 +1771,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1460,7 +1780,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -1469,7 +1789,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1478,7 +1798,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1487,7 +1807,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1496,7 +1816,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1505,7 +1825,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1514,7 +1834,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -1523,7 +1843,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -1532,7 +1852,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -1541,7 +1861,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -1550,7 +1870,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1559,7 +1879,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -1568,7 +1888,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -1577,7 +1897,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -1586,7 +1906,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -1595,7 +1915,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -1604,7 +1924,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -1613,7 +1933,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -1622,7 +1942,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -1631,7 +1951,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -1640,7 +1960,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -1649,7 +1969,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -1658,7 +1978,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -1667,7 +1987,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -1676,7 +1996,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -1685,7 +2005,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -1694,7 +2014,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -1703,7 +2023,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -1712,7 +2032,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -1721,7 +2041,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -1730,7 +2050,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -1739,7 +2059,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -1748,7 +2068,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -1757,7 +2077,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -1766,7 +2086,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -1775,7 +2095,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -1784,7 +2104,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -1793,7 +2113,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -1802,7 +2122,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -1811,7 +2131,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -1820,7 +2140,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -1829,7 +2149,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -1838,7 +2158,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -1847,7 +2167,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -1856,7 +2176,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -1865,7 +2185,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -1874,7 +2194,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -1883,7 +2203,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -1892,7 +2212,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -1901,7 +2221,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -1910,7 +2230,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -1919,7 +2239,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -1928,7 +2248,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -1937,7 +2257,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -1946,7 +2266,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -1955,7 +2275,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -1964,7 +2284,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -1973,7 +2293,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -1982,7 +2302,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -1991,7 +2311,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -2000,7 +2320,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -2009,7 +2329,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -2018,7 +2338,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -2027,7 +2347,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -2036,7 +2356,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -2045,7 +2365,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -2054,7 +2374,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -2063,7 +2383,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -2072,7 +2392,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -2081,7 +2401,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -2090,7 +2410,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -2099,7 +2419,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -2108,7 +2428,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -2117,7 +2437,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -2126,7 +2446,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -2135,7 +2455,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -2144,7 +2464,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -2153,7 +2473,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -2162,7 +2482,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -2171,7 +2491,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -2180,7 +2500,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -2189,7 +2509,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -2198,7 +2518,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -2207,7 +2527,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -2216,7 +2536,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -2225,7 +2545,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -2234,7 +2554,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -2243,7 +2563,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -2252,7 +2572,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -2261,7 +2581,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -2270,7 +2590,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -2279,7 +2599,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -2288,7 +2608,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -2297,7 +2617,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -2306,7 +2626,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -2315,7 +2635,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -2324,7 +2644,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -2333,7 +2653,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -2342,7 +2662,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -2351,7 +2671,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -2360,7 +2680,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -2369,7 +2689,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -2378,7 +2698,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -2387,7 +2707,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -2396,7 +2716,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -2405,7 +2725,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -2414,7 +2734,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -2423,7 +2743,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -2432,7 +2752,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -2441,7 +2761,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -2450,7 +2770,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -2459,7 +2779,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -2468,7 +2788,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -2477,7 +2797,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -2486,7 +2806,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -2495,7 +2815,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -2504,7 +2824,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -2513,7 +2833,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -2522,7 +2842,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -2531,7 +2851,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -2540,7 +2860,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -2549,7 +2869,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -2558,7 +2878,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -2567,7 +2887,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -2576,7 +2896,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -2585,7 +2905,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
-    <row r="192" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -2594,7 +2914,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -2603,7 +2923,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
     </row>
-    <row r="194" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -2612,7 +2932,7 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -2621,7 +2941,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -2630,7 +2950,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -2639,7 +2959,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -2648,7 +2968,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -2657,7 +2977,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -2666,7 +2986,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -2675,7 +2995,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
     </row>
-    <row r="202" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -2684,7 +3004,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
     </row>
-    <row r="203" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -2693,7 +3013,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
     </row>
-    <row r="204" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -2702,7 +3022,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
     </row>
-    <row r="205" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -2711,7 +3031,7 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -2720,7 +3040,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -2729,7 +3049,7 @@
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
     </row>
-    <row r="208" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -2738,7 +3058,7 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
     </row>
-    <row r="209" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -2747,7 +3067,7 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
     </row>
-    <row r="210" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -2756,7 +3076,7 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
     </row>
-    <row r="211" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -2765,7 +3085,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
     </row>
-    <row r="212" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -2774,7 +3094,7 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
     </row>
-    <row r="213" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -2783,7 +3103,7 @@
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
     </row>
-    <row r="214" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -2792,7 +3112,7 @@
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
     </row>
-    <row r="215" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -2801,7 +3121,7 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
     </row>
-    <row r="216" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -2810,7 +3130,7 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
     </row>
-    <row r="217" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -2819,7 +3139,7 @@
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
     </row>
-    <row r="218" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -2828,7 +3148,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
     </row>
-    <row r="219" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -2837,7 +3157,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
     </row>
-    <row r="220" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -2846,7 +3166,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
     </row>
-    <row r="221" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -2855,7 +3175,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
     </row>
-    <row r="222" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -2864,7 +3184,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
     </row>
-    <row r="223" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -2873,7 +3193,7 @@
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
     </row>
-    <row r="224" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -2882,7 +3202,7 @@
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
     </row>
-    <row r="225" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -2891,7 +3211,7 @@
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
     </row>
-    <row r="226" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -2900,7 +3220,7 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
     </row>
-    <row r="227" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -2909,7 +3229,7 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
     </row>
-    <row r="228" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -2918,7 +3238,7 @@
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
     </row>
-    <row r="229" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -2927,7 +3247,7 @@
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
     </row>
-    <row r="230" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -2936,7 +3256,7 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
     </row>
-    <row r="231" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -2945,7 +3265,7 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
     </row>
-    <row r="232" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -2954,7 +3274,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
     </row>
-    <row r="233" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -2963,7 +3283,7 @@
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
     </row>
-    <row r="234" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -2972,7 +3292,7 @@
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
     </row>
-    <row r="235" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -2981,7 +3301,7 @@
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
     </row>
-    <row r="236" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -2990,7 +3310,7 @@
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
     </row>
-    <row r="237" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -2999,7 +3319,7 @@
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
     </row>
-    <row r="238" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -3008,7 +3328,7 @@
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
     </row>
-    <row r="239" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -3017,7 +3337,7 @@
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
     </row>
-    <row r="240" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -3026,7 +3346,7 @@
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
     </row>
-    <row r="241" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -3035,7 +3355,7 @@
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
     </row>
-    <row r="242" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -3044,7 +3364,7 @@
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
     </row>
-    <row r="243" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -3053,7 +3373,7 @@
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
     </row>
-    <row r="244" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -3062,7 +3382,7 @@
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
     </row>
-    <row r="245" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -3071,7 +3391,7 @@
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
     </row>
-    <row r="246" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -3080,7 +3400,7 @@
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
     </row>
-    <row r="247" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -3089,7 +3409,7 @@
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
     </row>
-    <row r="248" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -3098,7 +3418,7 @@
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
     </row>
-    <row r="249" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -3107,7 +3427,7 @@
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
     </row>
-    <row r="250" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -3116,7 +3436,7 @@
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
     </row>
-    <row r="251" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -3125,7 +3445,7 @@
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
     </row>
-    <row r="252" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -3134,7 +3454,7 @@
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
     </row>
-    <row r="253" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -3143,7 +3463,7 @@
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
     </row>
-    <row r="254" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -3152,7 +3472,7 @@
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
     </row>
-    <row r="255" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -3161,7 +3481,7 @@
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
     </row>
-    <row r="256" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -3170,7 +3490,7 @@
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
     </row>
-    <row r="257" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -3179,7 +3499,7 @@
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
     </row>
-    <row r="258" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -3188,7 +3508,7 @@
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -3197,7 +3517,7 @@
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
     </row>
-    <row r="260" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -3206,7 +3526,7 @@
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -3215,7 +3535,7 @@
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -3224,7 +3544,7 @@
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -3233,7 +3553,7 @@
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -3242,7 +3562,7 @@
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -3251,7 +3571,7 @@
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -3260,7 +3580,7 @@
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -3269,7 +3589,7 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -3278,7 +3598,7 @@
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -3287,7 +3607,7 @@
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -3296,7 +3616,7 @@
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -3305,7 +3625,7 @@
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -3314,7 +3634,7 @@
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -3323,7 +3643,7 @@
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -3332,7 +3652,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -3341,7 +3661,7 @@
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -3350,7 +3670,7 @@
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -3359,7 +3679,7 @@
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -3368,7 +3688,7 @@
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -3377,7 +3697,7 @@
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -3386,7 +3706,7 @@
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -3395,7 +3715,7 @@
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -3404,7 +3724,7 @@
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -3413,7 +3733,7 @@
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -3422,7 +3742,7 @@
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -3431,7 +3751,7 @@
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -3440,7 +3760,7 @@
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -3449,7 +3769,7 @@
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -3458,7 +3778,7 @@
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -3467,7 +3787,7 @@
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -3476,7 +3796,7 @@
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -3485,7 +3805,7 @@
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
     </row>
-    <row r="292" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -3494,7 +3814,7 @@
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
     </row>
-    <row r="293" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -3503,7 +3823,7 @@
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
     </row>
-    <row r="294" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -3512,7 +3832,7 @@
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
     </row>
-    <row r="295" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -3521,7 +3841,7 @@
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
     </row>
-    <row r="296" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -3530,7 +3850,7 @@
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -3539,7 +3859,7 @@
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
     </row>
-    <row r="298" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -3548,7 +3868,7 @@
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -3557,7 +3877,7 @@
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -3566,7 +3886,7 @@
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -3575,7 +3895,7 @@
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -3584,7 +3904,7 @@
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -3593,7 +3913,7 @@
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
     </row>
-    <row r="304" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -3602,7 +3922,7 @@
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -3611,7 +3931,7 @@
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
     </row>
-    <row r="306" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -3620,7 +3940,7 @@
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
     </row>
-    <row r="307" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -3629,7 +3949,7 @@
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -3638,7 +3958,7 @@
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -3647,7 +3967,7 @@
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
     </row>
-    <row r="310" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -3656,7 +3976,7 @@
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
     </row>
-    <row r="311" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -3665,7 +3985,7 @@
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -3674,7 +3994,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -3683,7 +4003,7 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -3692,7 +4012,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -3701,7 +4021,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -3710,7 +4030,7 @@
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -3719,7 +4039,7 @@
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
     </row>
-    <row r="318" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -3728,7 +4048,7 @@
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -3737,7 +4057,7 @@
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
     </row>
-    <row r="320" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -3746,7 +4066,7 @@
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
     </row>
-    <row r="321" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -3755,7 +4075,7 @@
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
     </row>
-    <row r="322" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -3764,7 +4084,7 @@
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
     </row>
-    <row r="323" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -3773,7 +4093,7 @@
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
     </row>
-    <row r="324" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -3782,7 +4102,7 @@
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
     </row>
-    <row r="325" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -3791,7 +4111,7 @@
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
     </row>
-    <row r="326" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -3800,7 +4120,7 @@
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
     </row>
-    <row r="327" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -3809,7 +4129,7 @@
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -3818,7 +4138,7 @@
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
     </row>
-    <row r="329" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -3827,7 +4147,7 @@
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
     </row>
-    <row r="330" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -3836,7 +4156,7 @@
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
     </row>
-    <row r="331" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -3845,7 +4165,7 @@
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
     </row>
-    <row r="332" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -3854,7 +4174,7 @@
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
     </row>
-    <row r="333" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -3863,7 +4183,7 @@
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
     </row>
-    <row r="334" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -3872,7 +4192,7 @@
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
     </row>
-    <row r="335" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -3881,7 +4201,7 @@
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
     </row>
-    <row r="336" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -3890,7 +4210,7 @@
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -3899,7 +4219,7 @@
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -3908,7 +4228,7 @@
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
     </row>
-    <row r="339" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -3917,7 +4237,7 @@
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
     </row>
-    <row r="340" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -3926,7 +4246,7 @@
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
     </row>
-    <row r="341" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -3935,7 +4255,7 @@
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
     </row>
-    <row r="342" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -3944,7 +4264,7 @@
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
     </row>
-    <row r="343" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -3953,7 +4273,7 @@
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
     </row>
-    <row r="344" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -3962,7 +4282,7 @@
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
     </row>
-    <row r="345" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -3971,7 +4291,7 @@
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
     </row>
-    <row r="346" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -3980,7 +4300,7 @@
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
     </row>
-    <row r="347" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -3989,7 +4309,7 @@
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
     </row>
-    <row r="348" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -3998,7 +4318,7 @@
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
     </row>
-    <row r="349" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -4007,7 +4327,7 @@
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
     </row>
-    <row r="350" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -4016,7 +4336,7 @@
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
     </row>
-    <row r="351" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -4025,7 +4345,7 @@
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
     </row>
-    <row r="352" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -4034,7 +4354,7 @@
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -4043,7 +4363,7 @@
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
     </row>
-    <row r="354" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -4052,7 +4372,7 @@
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
     </row>
-    <row r="355" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -4061,7 +4381,7 @@
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
     </row>
-    <row r="356" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -4070,7 +4390,7 @@
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
     </row>
-    <row r="357" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -4079,7 +4399,7 @@
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
     </row>
-    <row r="358" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -4088,7 +4408,7 @@
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
     </row>
-    <row r="359" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -4097,7 +4417,7 @@
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
     </row>
-    <row r="360" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -4106,7 +4426,7 @@
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
     </row>
-    <row r="361" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -4115,7 +4435,7 @@
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
     </row>
-    <row r="362" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -4124,7 +4444,7 @@
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
     </row>
-    <row r="363" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -4133,7 +4453,7 @@
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
     </row>
-    <row r="364" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -4142,7 +4462,7 @@
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -4151,7 +4471,7 @@
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
     </row>
-    <row r="366" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -4160,7 +4480,7 @@
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -4169,7 +4489,7 @@
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
     </row>
-    <row r="368" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -4178,7 +4498,7 @@
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
     </row>
-    <row r="369" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -4187,7 +4507,7 @@
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
     </row>
-    <row r="370" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -4196,7 +4516,7 @@
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
     </row>
-    <row r="371" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -4205,7 +4525,7 @@
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
     </row>
-    <row r="372" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -4214,7 +4534,7 @@
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
     </row>
-    <row r="373" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -4223,7 +4543,7 @@
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
     </row>
-    <row r="374" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -4232,7 +4552,7 @@
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
     </row>
-    <row r="375" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -4241,7 +4561,7 @@
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
     </row>
-    <row r="376" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -4250,7 +4570,7 @@
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
     </row>
-    <row r="377" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -4259,7 +4579,7 @@
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
     </row>
-    <row r="378" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -4268,7 +4588,7 @@
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
     </row>
-    <row r="379" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -4277,7 +4597,7 @@
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
     </row>
-    <row r="380" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -4286,7 +4606,7 @@
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
     </row>
-    <row r="381" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -4295,7 +4615,7 @@
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -4304,7 +4624,7 @@
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
     </row>
-    <row r="383" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -4313,7 +4633,7 @@
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
     </row>
-    <row r="384" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -4322,7 +4642,7 @@
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
     </row>
-    <row r="385" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -4331,7 +4651,7 @@
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
     </row>
-    <row r="386" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -4340,7 +4660,7 @@
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
     </row>
-    <row r="387" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -4349,7 +4669,7 @@
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
     </row>
-    <row r="388" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -4358,7 +4678,7 @@
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
     </row>
-    <row r="389" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -4367,7 +4687,7 @@
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
     </row>
-    <row r="390" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -4376,7 +4696,7 @@
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
     </row>
-    <row r="391" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -4385,7 +4705,7 @@
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
     </row>
-    <row r="392" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -4394,7 +4714,7 @@
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
     </row>
-    <row r="393" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -4403,7 +4723,7 @@
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
     </row>
-    <row r="394" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -4412,7 +4732,7 @@
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
     </row>
-    <row r="395" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -4421,7 +4741,7 @@
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -4430,7 +4750,7 @@
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
     </row>
-    <row r="397" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -4439,7 +4759,7 @@
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
     </row>
-    <row r="398" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -4448,7 +4768,7 @@
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
     </row>
-    <row r="399" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -4457,7 +4777,7 @@
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
     </row>
-    <row r="400" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -4466,7 +4786,7 @@
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
     </row>
-    <row r="401" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -4475,7 +4795,7 @@
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
     </row>
-    <row r="402" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -4484,7 +4804,7 @@
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
     </row>
-    <row r="403" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -4493,7 +4813,7 @@
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
     </row>
-    <row r="404" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -4502,7 +4822,7 @@
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
     </row>
-    <row r="405" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -4511,7 +4831,7 @@
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
     </row>
-    <row r="406" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -4520,7 +4840,7 @@
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
     </row>
-    <row r="407" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -4529,7 +4849,7 @@
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
     </row>
-    <row r="408" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -4538,7 +4858,7 @@
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
     </row>
-    <row r="409" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -4547,7 +4867,7 @@
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
     </row>
-    <row r="410" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -4556,7 +4876,7 @@
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
     </row>
-    <row r="411" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -4565,7 +4885,7 @@
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
     </row>
-    <row r="412" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -4574,7 +4894,7 @@
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
     </row>
-    <row r="413" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -4583,7 +4903,7 @@
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
     </row>
-    <row r="414" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -4592,7 +4912,7 @@
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
     </row>
-    <row r="415" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -4601,7 +4921,7 @@
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -4610,7 +4930,7 @@
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
     </row>
-    <row r="417" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -4619,7 +4939,7 @@
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
     </row>
-    <row r="418" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -4628,7 +4948,7 @@
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
     </row>
-    <row r="419" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -4637,7 +4957,7 @@
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
     </row>
-    <row r="420" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -4646,7 +4966,7 @@
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
     </row>
-    <row r="421" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -4655,7 +4975,7 @@
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
     </row>
-    <row r="422" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -4664,7 +4984,7 @@
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
     </row>
-    <row r="423" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -4673,7 +4993,7 @@
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
     </row>
-    <row r="424" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -4682,7 +5002,7 @@
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
     </row>
-    <row r="425" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -4691,7 +5011,7 @@
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
     </row>
-    <row r="426" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -4700,7 +5020,7 @@
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
     </row>
-    <row r="427" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -4709,7 +5029,7 @@
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
     </row>
-    <row r="428" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -4718,7 +5038,7 @@
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
     </row>
-    <row r="429" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -4727,7 +5047,7 @@
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
     </row>
-    <row r="430" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -4736,7 +5056,7 @@
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
     </row>
-    <row r="431" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -4745,7 +5065,7 @@
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
     </row>
-    <row r="432" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -4754,7 +5074,7 @@
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
     </row>
-    <row r="433" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -4763,7 +5083,7 @@
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
     </row>
-    <row r="434" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -4772,7 +5092,7 @@
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
     </row>
-    <row r="435" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -4781,7 +5101,7 @@
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -4790,7 +5110,7 @@
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
     </row>
-    <row r="437" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -4799,7 +5119,7 @@
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
     </row>
-    <row r="438" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -4808,7 +5128,7 @@
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
     </row>
-    <row r="439" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -4817,7 +5137,7 @@
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
     </row>
-    <row r="440" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -4826,7 +5146,7 @@
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
     </row>
-    <row r="441" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -4835,7 +5155,7 @@
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
     </row>
-    <row r="442" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -4844,7 +5164,7 @@
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
     </row>
-    <row r="443" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -4853,7 +5173,7 @@
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
     </row>
-    <row r="444" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -4862,7 +5182,7 @@
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
     </row>
-    <row r="445" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -4871,7 +5191,7 @@
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
     </row>
-    <row r="446" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -4880,7 +5200,7 @@
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
     </row>
-    <row r="447" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -4889,7 +5209,7 @@
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
     </row>
-    <row r="448" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -4898,7 +5218,7 @@
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
     </row>
-    <row r="449" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -4907,7 +5227,7 @@
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
     </row>
-    <row r="450" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -4916,7 +5236,7 @@
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
     </row>
-    <row r="451" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -4925,7 +5245,7 @@
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
     </row>
-    <row r="452" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -4934,7 +5254,7 @@
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
     </row>
-    <row r="453" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -4943,7 +5263,7 @@
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
     </row>
-    <row r="454" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -4952,7 +5272,7 @@
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
     </row>
-    <row r="455" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -4961,7 +5281,7 @@
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -4970,7 +5290,7 @@
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
     </row>
-    <row r="457" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -4979,7 +5299,7 @@
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
     </row>
-    <row r="458" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -4988,7 +5308,7 @@
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
     </row>
-    <row r="459" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -4997,7 +5317,7 @@
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
     </row>
-    <row r="460" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -5006,7 +5326,7 @@
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
     </row>
-    <row r="461" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -5015,7 +5335,7 @@
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
     </row>
-    <row r="462" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -5024,7 +5344,7 @@
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
     </row>
-    <row r="463" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -5033,7 +5353,7 @@
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
     </row>
-    <row r="464" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -5042,7 +5362,7 @@
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
     </row>
-    <row r="465" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -5051,7 +5371,7 @@
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
     </row>
-    <row r="466" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -5060,7 +5380,7 @@
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
     </row>
-    <row r="467" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -5069,7 +5389,7 @@
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
     </row>
-    <row r="468" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
@@ -5078,7 +5398,7 @@
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
     </row>
-    <row r="469" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
@@ -5087,7 +5407,7 @@
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
     </row>
-    <row r="470" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -5096,7 +5416,7 @@
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
     </row>
-    <row r="471" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
@@ -5105,7 +5425,7 @@
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
     </row>
-    <row r="472" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -5114,7 +5434,7 @@
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
     </row>
-    <row r="473" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -5123,7 +5443,7 @@
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
     </row>
-    <row r="474" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -5132,7 +5452,7 @@
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
     </row>
-    <row r="475" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -5142,29 +5462,16 @@
       <c r="H475" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>